--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_45.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77190.32828475948</v>
+        <v>5151068.340509116</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77190.32828475948</v>
+        <v>5151068.340509116</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960453226.1947436</v>
+        <v>37288624.21355169</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11558.96626254672</v>
+        <v>1075552.900694675</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20958.24520401948</v>
+        <v>1777375.150814693</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30360.30535670391</v>
+        <v>2479197.400934712</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39953.65918390908</v>
+        <v>3180316.227403941</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49547.01301111426</v>
+        <v>3881435.053873169</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59140.36388800169</v>
+        <v>4582553.880342397</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>68733.66466728909</v>
+        <v>5283672.706811623</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78327.01849449429</v>
+        <v>5984791.533280848</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>87920.37232169948</v>
+        <v>6685910.359750072</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97513.72614890468</v>
+        <v>7387029.186219298</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>107107.0770257921</v>
+        <v>8088148.012688522</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>116700.4308529973</v>
+        <v>8789266.839157753</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>126293.7817298848</v>
+        <v>9490385.665626986</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135887.1355570899</v>
+        <v>10191504.49209622</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>145480.4893842952</v>
+        <v>10892623.31856545</v>
       </c>
     </row>
   </sheetData>
